--- a/downloaded_files/MEPS422_Tutorial-35726.xlsx
+++ b/downloaded_files/MEPS422_Tutorial-35726.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Ahmed Omar Badry Badawy Metwaly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد مصطفى احمد جلال احمد كامل دسوقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1200398</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -931,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45918.5820696759</x:v>
+        <x:v>45909.6847966088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6847966088</x:v>
+        <x:v>45913.4214077893</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.4214077893</x:v>
+        <x:v>45909.416181331</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.416181331</x:v>
+        <x:v>45906.4146811343</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4146811343</x:v>
+        <x:v>45906.6647992245</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647992245</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.4308738426</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4308738426</x:v>
+        <x:v>45906.4167829861</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4167829861</x:v>
+        <x:v>45906.6730399653</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6730399653</x:v>
+        <x:v>45909.4769524306</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4769524306</x:v>
+        <x:v>45906.6656476852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6656476852</x:v>
+        <x:v>45906.4152837153</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4152837153</x:v>
+        <x:v>45906.6904955208</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6904955208</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.4156922106</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4156922106</x:v>
+        <x:v>45906.5186452546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.5186452546</x:v>
+        <x:v>45906.4167361458</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4167361458</x:v>
+        <x:v>45906.6758269676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6758269676</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45906.6656807523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1557,48 +1548,16 @@
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
     </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6656807523</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Energy Auditing (MEPS422) Location : [0]17101-0-الجيزة الرئيسي Time : Thursday(16:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Energy Auditing (MEPS422) Location : [0]17101-0-الجيزة الرئيسي Time : Wednesday(16:18)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Energy Auditing (MEPS422) Location : [0]17101-0-الجيزة الرئيسي Time : Thursday(16:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Energy Auditing (MEPS422) Location : [0]17101-0-الجيزة الرئيسي Time : Wednesday(16:18)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Energy Auditing (MEPS422) Location : [0]17101-0-الجيزة الرئيسي Time : Thursday(16:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Energy Auditing (MEPS422) Location : [0]17101-0-الجيزة الرئيسي Time : Wednesday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MEPS422_Tutorial-35726.xlsx
+++ b/downloaded_files/MEPS422_Tutorial-35726.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق محمد فوزى عريبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Farouk Mohamed Fawzy Oraiba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -680,7 +689,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.540625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.440625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.370625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45937.4320810185</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
